--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmeub\Documents\UNI\InfLabor2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmeub\Documents\UNI\InfLabor2\Inf2Pacman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8471A0F4-CD73-481C-B986-17EB150D2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0006B9-DCD0-49D5-8574-7F01437113DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF80C686-7AE8-43AE-BC89-504F41E5AEED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fabian</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Game</t>
+  </si>
+  <si>
+    <t>Constats</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>MazeCell</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03796823-8192-4910-AE92-DA7A2637773F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,8 +484,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
